--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Title 1</t>
+    <t>Title</t>
   </si>
   <si>
-    <t>Title 2</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -77,17 +77,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Title 1"/>
-    <tableColumn id="2" name="Title 2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,7 +379,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,8 +394,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>